--- a/Stat reports/Reports/Templates/12-вэс (услуги).xlsx
+++ b/Stat reports/Reports/Templates/12-вэс (услуги).xlsx
@@ -3,14 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Статотчетность_дирекция\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6683FFC-25EA-4BE0-80A2-B8C87796A8D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21375" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21375" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Главная" sheetId="1" r:id="rId1"/>
@@ -20,32 +14,32 @@
     <sheet name="Раздел 4" sheetId="5" r:id="rId5"/>
     <sheet name="Раздел 5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="90">
   <si>
-    <t>ГОСУДАРСТВЕННАЯ СТАТИСТИЧЕСКАЯ ОТЧЕТНОСТЬ</t>
-  </si>
-  <si>
-    <t>КОНФИДЕНЦИАЛЬНОСТЬ ГАРАНТИРУЕТСЯ ПОЛУЧАТЕЛЕМ ИНФОРМАЦИИ</t>
-  </si>
-  <si>
-    <t>Представление искаженных данных государственной статистической отчетности, несвоевременное представление или непредставление такой отчетности влекут применение мер административной или уголовной ответственности в порядке, установленном законодательством Республики Беларусь</t>
-  </si>
-  <si>
-    <t>Представляют респонденты</t>
-  </si>
-  <si>
-    <t>Срок представления</t>
-  </si>
-  <si>
-    <t>12-вэс (услуги)</t>
-  </si>
-  <si>
-    <t>юридические лица, обособленные подразделения юридических
+    <t xml:space="preserve">ГОСУДАРСТВЕННАЯ СТАТИСТИЧЕСКАЯ ОТЧЕТНОСТЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОНФИДЕНЦИАЛЬНОСТЬ ГАРАНТИРУЕТСЯ ПОЛУЧАТЕЛЕМ ИНФОРМАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представление искаженных данных государственной статистической отчетности, несвоевременное представление или непредставление такой отчетности влекут применение мер административной или уголовной ответственности в порядке, установленном законодательством Республики Беларусь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представляют респонденты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срок представления</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-вэс (услуги)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">юридические лица, обособленные подразделения юридических
 лиц, имеющие отдельный баланс, в соответствии с Указаниями
 по заполнению настоящей формы в виде электронного
 документа
@@ -54,20 +48,20 @@
 управления области</t>
   </si>
   <si>
-    <t>18-го числа после отчетного периода</t>
-  </si>
-  <si>
-    <t>Код формы
+    <t xml:space="preserve">18-го числа после отчетного периода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Код формы
 по ОКУД</t>
   </si>
   <si>
-    <t>0645001</t>
-  </si>
-  <si>
-    <t>Месячная</t>
-  </si>
-  <si>
-    <t>государственное объединение "Белорусская железная дорога"
+    <t xml:space="preserve">0645001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Месячная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">государственное объединение "Белорусская железная дорога"
 (агрегированные первичные статистические данные по
 объединению), Министерство иностранных дел (агрегированные
 первичные статистические данные по дипломатическими
@@ -76,98 +70,98 @@
 Национальному статистическому комитету</t>
   </si>
   <si>
-    <t>25-го числа после отчетного периода</t>
-  </si>
-  <si>
-    <t>Полное наименование юридического лица: ОТКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО "СТРОЙТРЕСТ N 3 ОРДЕНА
+    <t xml:space="preserve">25-го числа после отчетного периода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полное наименование юридического лица: ОТКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО "СТРОЙТРЕСТ N 3 ОРДЕНА
 ОКТЯБРЬСКОЙ РЕВОЛЮЦИИ"</t>
   </si>
   <si>
-    <t>Полное наименование обособленного подразделения юридического лица: ОТКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО
+    <t xml:space="preserve">Полное наименование обособленного подразделения юридического лица: ОТКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО
 "СТРОЙТРЕСТ N 3 ОРДЕНА ОКТЯБРЬСКОЙ РЕВОЛЮЦИИ"</t>
   </si>
   <si>
-    <t>Местоположение: 223710, МИНСКАЯ ОБЛАСТЬ, Солигорский, Солигорск, УЛ. КОЗЛОВА, 37</t>
-  </si>
-  <si>
-    <t>Электронный адрес: str3@str3.by</t>
-  </si>
-  <si>
-    <t>Регистрационный номер в статистическом регистре (ОКПО)</t>
-  </si>
-  <si>
-    <t>Учетный номер плательщика (УНП)</t>
-  </si>
-  <si>
-    <t>Наименование вида услуги внешней торговли</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>012774946000</t>
-  </si>
-  <si>
-    <t>600122771</t>
-  </si>
-  <si>
-    <t>Услуги гостиниц (не включенные в стоимость
+    <t xml:space="preserve">Местоположение: 223710, МИНСКАЯ ОБЛАСТЬ, Солигорский, Солигорск, УЛ. КОЗЛОВА, 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Электронный адрес: str3@str3.by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Регистрационный номер в статистическом регистре (ОКПО)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Учетный номер плательщика (УНП)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование вида услуги внешней торговли</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012774946000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600122771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Услуги гостиниц (не включенные в стоимость
 туров)</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>в том числе по странам:</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Всего по виду услуги</t>
-  </si>
-  <si>
-    <t>Б</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>стоимость,
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в том числе по странам:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всего по виду услуги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">стоимость,
 тысяч
 долларов
 США</t>
   </si>
   <si>
-    <t>стоимость,
+    <t xml:space="preserve">стоимость,
 руб.</t>
   </si>
   <si>
-    <t>Стоимость
+    <t xml:space="preserve">Стоимость
 экспортированных
 услуг за отчетный
 месяц</t>
   </si>
   <si>
-    <t>Код</t>
-  </si>
-  <si>
-    <t>Наименование показателя</t>
-  </si>
-  <si>
-    <t>Раздел 1</t>
-  </si>
-  <si>
-    <t>Экспорт услуг</t>
+    <t xml:space="preserve">Код</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование показателя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раздел 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экспорт услуг</t>
   </si>
   <si>
     <t xml:space="preserve">Таблица 1  </t>
@@ -176,129 +170,129 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>643</t>
-  </si>
-  <si>
-    <t>РОССИЙСКАЯ ФЕДЕРАЦИЯ</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Стоимость
+    <t xml:space="preserve">643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РОССИЙСКАЯ ФЕДЕРАЦИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стоимость
 импортированных
 услуг за отчетный
 месяц</t>
   </si>
   <si>
-    <t>Раздел 2</t>
-  </si>
-  <si>
-    <t>Импорт услуг</t>
+    <t xml:space="preserve">Раздел 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Импорт услуг</t>
   </si>
   <si>
     <t xml:space="preserve">Таблица 2  </t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Выручка от
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выручка от
 реализации билетов</t>
   </si>
   <si>
-    <t>Раздел 3</t>
+    <t xml:space="preserve">Раздел 3</t>
   </si>
   <si>
     <t xml:space="preserve">Таблица 3  </t>
   </si>
   <si>
-    <t>Выручка от реализации физическим лицам-резидентам
+    <t xml:space="preserve">Выручка от реализации физическим лицам-резидентам
 Республики Беларусь билетов на рейсы (перевозки),
 осуществляемые транспортными средствами иностранных
 организаций</t>
   </si>
   <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>Благодарим за предоставленную информацию!</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>Пожалуйста, поставьте "1" в соответствующей графе</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>16-40
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Благодарим за предоставленную информацию!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пожалуйста, поставьте "1" в соответствующей графе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-40
 часов</t>
   </si>
   <si>
-    <t>8-16 часов</t>
-  </si>
-  <si>
-    <t>4-8 часов</t>
-  </si>
-  <si>
-    <t>2-4 часа</t>
-  </si>
-  <si>
-    <t>1-2 часа</t>
-  </si>
-  <si>
-    <t>до 1 часа</t>
-  </si>
-  <si>
-    <t>Время, затраченное на заполнение отчета, часов</t>
-  </si>
-  <si>
-    <t>Наименование</t>
-  </si>
-  <si>
-    <t>Раздел 90</t>
-  </si>
-  <si>
-    <t>Уважаемый респондент! Просим Вас заполнить информацию о времени, затраченном на заполнение этой формы</t>
-  </si>
-  <si>
-    <t>Таблица 96 Сколько времени Вы затратили на заполнение отчета?</t>
-  </si>
-  <si>
-    <t>более
+    <t xml:space="preserve">8-16 часов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-8 часов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-4 часа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2 часа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">до 1 часа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время, затраченное на заполнение отчета, часов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раздел 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уважаемый респондент! Просим Вас заполнить информацию о времени, затраченном на заполнение этой формы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 96 Сколько времени Вы затратили на заполнение отчета?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">более
 40
 часов</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>Пожалуйста, укажите одну или несколько причин, проставив "1" в соответствующей
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пожалуйста, укажите одну или несколько причин, проставив "1" в соответствующей
 графе</t>
   </si>
   <si>
-    <t>Наличие
+    <t xml:space="preserve">Наличие
 структурных
 подразделений
 на
@@ -306,7 +300,7 @@
 территориях</t>
   </si>
   <si>
-    <t>В
+    <t xml:space="preserve">В
 первичных
 учетных
 документах
@@ -315,43 +309,44 @@
 информация</t>
   </si>
   <si>
-    <t>Сложная
+    <t xml:space="preserve">Сложная
 методология
 расчета
 показателей</t>
   </si>
   <si>
-    <t>Таблица 98 Чем обусловлена трудоемкость заполнения отчета?</t>
-  </si>
-  <si>
-    <t>Лицо, ответственное за составление и представление
+    <t xml:space="preserve">Таблица 98 Чем обусловлена трудоемкость заполнения отчета?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лицо, ответственное за составление и представление
 первичных статистических данных</t>
   </si>
   <si>
-    <t>(должность)</t>
-  </si>
-  <si>
-    <t>(подпись)</t>
-  </si>
-  <si>
-    <t>(инициалы, фамилия)</t>
-  </si>
-  <si>
-    <t>(фамилия, собственное имя, отчество контактного
+    <t xml:space="preserve">(должность)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(подпись)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(инициалы, фамилия)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(фамилия, собственное имя, отчество контактного
 лица, номер телефона, адрес электронной почты)</t>
   </si>
   <si>
-    <t>(дата составления государственной
+    <t xml:space="preserve">(дата составления государственной
 статистической отчетности)</t>
   </si>
   <si>
-    <t>Отчет об экспорте и импорте услуг  за</t>
+    <t xml:space="preserve">Отчет об экспорте и импорте услуг  за</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -760,11 +755,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1066,8 +1061,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A2:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
@@ -1417,8 +1412,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="C10:D11"/>
@@ -1530,8 +1525,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="C10:D12"/>
@@ -1653,8 +1648,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D10" sqref="C10:D10"/>
@@ -1770,8 +1765,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I1"/>
@@ -1977,8 +1972,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17:A18"/>
